--- a/VA Frog Tubes Data Spreadsheet.xlsx
+++ b/VA Frog Tubes Data Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\Frog Tubes\VA Frog Tubes\Data_and_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Frog Tubes\VA Frog Tubes\Data_and_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{93C1A219-EAF6-4E1C-9C5C-DA044A480E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25DF9BD9-76ED-433B-BD83-3FAB9E9B5864}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -291,6 +291,24 @@
   </si>
   <si>
     <t>William Flint</t>
+  </si>
+  <si>
+    <t>Kendyl Combs</t>
+  </si>
+  <si>
+    <t>Kevin Keaveney</t>
+  </si>
+  <si>
+    <t>Dominique Sanchez</t>
+  </si>
+  <si>
+    <t>Kaitlyn Harless</t>
+  </si>
+  <si>
+    <t>Kelly Livernoche</t>
+  </si>
+  <si>
+    <t>Spencer Knox</t>
   </si>
 </sst>
 </file>
@@ -664,18 +682,18 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -695,7 +713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -715,7 +733,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -735,7 +753,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -749,7 +767,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -759,8 +777,11 @@
       <c r="D5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -770,8 +791,11 @@
       <c r="D6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -781,8 +805,11 @@
       <c r="D7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -792,8 +819,11 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -803,8 +833,11 @@
       <c r="D9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -814,8 +847,11 @@
       <c r="D10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -829,7 +865,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -843,7 +879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -857,7 +893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -871,7 +907,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -879,7 +915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -887,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -895,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -903,7 +939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -911,7 +947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -919,7 +955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -927,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -935,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -943,7 +979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -951,7 +987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -959,7 +995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -967,7 +1003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -975,7 +1011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -983,7 +1019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -991,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -999,7 +1035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1007,7 +1043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>82</v>
       </c>
@@ -1026,23 +1062,23 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" style="2"/>
     <col min="11" max="11" width="28" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="2"/>
+    <col min="12" max="12" width="18.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42876</v>
       </c>
@@ -1115,7 +1151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>42893</v>
       </c>
@@ -1150,7 +1186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>42900</v>
       </c>
@@ -1185,7 +1221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>42915</v>
       </c>
@@ -1220,7 +1256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42943</v>
       </c>
@@ -1255,7 +1291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42954</v>
       </c>
@@ -1290,7 +1326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>42954</v>
       </c>
@@ -1322,7 +1358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>42960</v>
       </c>
@@ -1357,7 +1393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>42979</v>
       </c>
@@ -1392,7 +1428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>42979</v>
       </c>
@@ -1427,7 +1463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>42979</v>
       </c>
@@ -1459,7 +1495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>42979</v>
       </c>
@@ -1494,7 +1530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>42979</v>
       </c>
@@ -1529,7 +1565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>42995</v>
       </c>
@@ -1564,7 +1600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>42999</v>
       </c>
@@ -1599,7 +1635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43008</v>
       </c>
@@ -1634,7 +1670,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43008</v>
       </c>
@@ -1666,7 +1702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43008</v>
       </c>
@@ -1701,7 +1737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43008</v>
       </c>
@@ -1733,7 +1769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43008</v>
       </c>
@@ -1765,7 +1801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43008</v>
       </c>
@@ -1797,7 +1833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43015</v>
       </c>
@@ -1829,7 +1865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43015</v>
       </c>
@@ -1861,7 +1897,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43015</v>
       </c>
@@ -1893,7 +1929,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43015</v>
       </c>
@@ -1925,7 +1961,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43015</v>
       </c>
@@ -1957,7 +1993,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43015</v>
       </c>
@@ -1989,7 +2025,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43015</v>
       </c>
@@ -2021,7 +2057,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43022</v>
       </c>
@@ -2060,13 +2096,13 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42876</v>
       </c>
@@ -2088,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>42876</v>
       </c>
@@ -2099,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>42893</v>
       </c>
@@ -2110,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>42893</v>
       </c>
@@ -2121,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42900</v>
       </c>
@@ -2132,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42900</v>
       </c>
@@ -2143,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>42915</v>
       </c>
@@ -2154,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>42915</v>
       </c>
@@ -2165,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>42943</v>
       </c>
@@ -2176,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>42943</v>
       </c>
@@ -2187,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>42954</v>
       </c>
@@ -2198,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>42954</v>
       </c>
@@ -2209,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>42960</v>
       </c>
@@ -2220,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>42960</v>
       </c>
@@ -2231,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>42979</v>
       </c>
@@ -2242,7 +2278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>42979</v>
       </c>
@@ -2253,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>42995</v>
       </c>
@@ -2264,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>42995</v>
       </c>
@@ -2275,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>42999</v>
       </c>
@@ -2286,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>42999</v>
       </c>
@@ -2297,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43008</v>
       </c>
@@ -2308,7 +2344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43008</v>
       </c>
@@ -2319,7 +2355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43015</v>
       </c>
@@ -2330,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43015</v>
       </c>
@@ -2341,7 +2377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43022</v>
       </c>
@@ -2352,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43022</v>
       </c>
